--- a/ThermisterTTC103.xlsx
+++ b/ThermisterTTC103.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\school\College\Sem 5\Embedded\Lab\MS2\milestone-2-front-row-squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC0A561-36F3-4C91-B260-7E7DD270389C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C894FC8-33D3-4306-8641-DA912552F5D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{3B8B9557-4AC8-4DDE-8A78-C31AB3DB3422}"/>
+    <workbookView xWindow="5760" yWindow="3246" windowWidth="17280" windowHeight="8994" xr2:uid="{3B8B9557-4AC8-4DDE-8A78-C31AB3DB3422}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Temp</t>
   </si>
   <si>
     <t>Resistance</t>
+  </si>
+  <si>
+    <t>Voltage Divider Low</t>
   </si>
 </sst>
 </file>
@@ -1435,148 +1438,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41279EC-6228-4CFC-A1CF-733EA1FFCBC1}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="128" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>-30</v>
       </c>
       <c r="B2">
         <v>150000</v>
       </c>
+      <c r="M2">
+        <f>3.3*B2/(B2+10000)</f>
+        <v>3.09375</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>-20</v>
       </c>
       <c r="B3">
         <v>80000</v>
       </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M17" si="0">3.3*B3/(B3+10000)</f>
+        <v>2.9333333333333331</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>-10</v>
       </c>
       <c r="B4">
         <v>50000</v>
       </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
         <v>30000</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>2.4750000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6">
         <v>19500</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>2.18135593220339</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7">
         <v>12000</v>
       </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>25</v>
       </c>
       <c r="B8">
         <v>10000</v>
       </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>30</v>
       </c>
       <c r="B9">
         <v>8000</v>
       </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>1.4666666666666666</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>40</v>
       </c>
       <c r="B10">
         <v>5500</v>
       </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1.1709677419354838</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>50</v>
       </c>
       <c r="B11">
         <v>4000</v>
       </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0.94285714285714284</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>60</v>
       </c>
       <c r="B12">
         <v>2700</v>
       </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0.7015748031496063</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>70</v>
       </c>
       <c r="B13">
         <v>2000</v>
       </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>80</v>
       </c>
       <c r="B14">
         <v>1500</v>
       </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0.43043478260869567</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>90</v>
       </c>
       <c r="B15">
         <v>1000</v>
       </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>100</v>
       </c>
       <c r="B16">
         <v>800</v>
       </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>0.24444444444444444</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>120</v>
       </c>
       <c r="B17">
         <v>470</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>0.1481375358166189</v>
       </c>
     </row>
   </sheetData>

--- a/ThermisterTTC103.xlsx
+++ b/ThermisterTTC103.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\school\College\Sem 5\Embedded\Lab\MS2\milestone-2-front-row-squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C894FC8-33D3-4306-8641-DA912552F5D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E5CC31-7D53-405C-B42D-50EEF02902E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3246" windowWidth="17280" windowHeight="8994" xr2:uid="{3B8B9557-4AC8-4DDE-8A78-C31AB3DB3422}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{3B8B9557-4AC8-4DDE-8A78-C31AB3DB3422}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>Resistance</t>
   </si>
   <si>
-    <t>Voltage Divider Low</t>
+    <t>Voltage Divider</t>
   </si>
 </sst>
 </file>
@@ -1438,214 +1438,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41279EC-6228-4CFC-A1CF-733EA1FFCBC1}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>-30</v>
       </c>
       <c r="B2">
         <v>150000</v>
       </c>
-      <c r="M2">
+      <c r="K2">
         <f>3.3*B2/(B2+10000)</f>
         <v>3.09375</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>-20</v>
       </c>
       <c r="B3">
         <v>80000</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M17" si="0">3.3*B3/(B3+10000)</f>
+      <c r="K3">
+        <f>3.3*B3/(B3+10000)</f>
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>-10</v>
       </c>
       <c r="B4">
         <v>50000</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
+      <c r="K4">
+        <f>3.3*B4/(B4+10000)</f>
         <v>2.75</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
         <v>30000</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
+      <c r="K5">
+        <f>3.3*B5/(B5+10000)</f>
         <v>2.4750000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6">
         <v>19500</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
+      <c r="K6">
+        <f>3.3*B6/(B6+10000)</f>
         <v>2.18135593220339</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7">
         <v>12000</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
+      <c r="K7">
+        <f>3.3*B7/(B7+10000)</f>
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>25</v>
       </c>
       <c r="B8">
         <v>10000</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
+      <c r="K8">
+        <f>3.3*B8/(B8+10000)</f>
         <v>1.65</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>30</v>
       </c>
       <c r="B9">
         <v>8000</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
+      <c r="K9">
+        <f>3.3*B9/(B9+10000)</f>
         <v>1.4666666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>40</v>
       </c>
       <c r="B10">
         <v>5500</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
+      <c r="K10">
+        <f>3.3*B10/(B10+10000)</f>
         <v>1.1709677419354838</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>50</v>
       </c>
       <c r="B11">
         <v>4000</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
+      <c r="K11">
+        <f>3.3*B11/(B11+10000)</f>
         <v>0.94285714285714284</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>60</v>
       </c>
       <c r="B12">
         <v>2700</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
+      <c r="K12">
+        <f>3.3*B12/(B12+10000)</f>
         <v>0.7015748031496063</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>70</v>
       </c>
       <c r="B13">
         <v>2000</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
+      <c r="K13">
+        <f>3.3*B13/(B13+10000)</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>80</v>
       </c>
       <c r="B14">
         <v>1500</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
+      <c r="K14">
+        <f>3.3*B14/(B14+10000)</f>
         <v>0.43043478260869567</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>90</v>
       </c>
       <c r="B15">
         <v>1000</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
+      <c r="K15">
+        <f>3.3*B15/(B15+10000)</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>100</v>
       </c>
       <c r="B16">
         <v>800</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
+      <c r="K16">
+        <f>3.3*B16/(B16+10000)</f>
         <v>0.24444444444444444</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>120</v>
       </c>
       <c r="B17">
         <v>470</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="0"/>
+      <c r="K17">
+        <f>3.3*B17/(B17+10000)</f>
         <v>0.1481375358166189</v>
       </c>
     </row>

--- a/ThermisterTTC103.xlsx
+++ b/ThermisterTTC103.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\school\College\Sem 5\Embedded\Lab\MS2\milestone-2-front-row-squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E5CC31-7D53-405C-B42D-50EEF02902E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9419F4F0-3F71-48E2-A9E6-5966951DFAD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{3B8B9557-4AC8-4DDE-8A78-C31AB3DB3422}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Temp</t>
   </si>
@@ -40,6 +42,9 @@
   </si>
   <si>
     <t>Voltage Divider</t>
+  </si>
+  <si>
+    <t>Room Temp</t>
   </si>
 </sst>
 </file>
@@ -1438,15 +1443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41279EC-6228-4CFC-A1CF-733EA1FFCBC1}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +1462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>-30</v>
       </c>
@@ -1469,7 +1474,7 @@
         <v>3.09375</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>-20</v>
       </c>
@@ -1477,11 +1482,11 @@
         <v>80000</v>
       </c>
       <c r="K3">
-        <f>3.3*B3/(B3+10000)</f>
+        <f t="shared" ref="K2:K17" si="0">3.3*B3/(B3+10000)</f>
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>-10</v>
       </c>
@@ -1489,11 +1494,11 @@
         <v>50000</v>
       </c>
       <c r="K4">
-        <f>3.3*B4/(B4+10000)</f>
+        <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1501,11 +1506,11 @@
         <v>30000</v>
       </c>
       <c r="K5">
-        <f>3.3*B5/(B5+10000)</f>
+        <f t="shared" si="0"/>
         <v>2.4750000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1513,11 +1518,11 @@
         <v>19500</v>
       </c>
       <c r="K6">
-        <f>3.3*B6/(B6+10000)</f>
+        <f t="shared" si="0"/>
         <v>2.18135593220339</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1525,11 +1530,11 @@
         <v>12000</v>
       </c>
       <c r="K7">
-        <f>3.3*B7/(B7+10000)</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>25</v>
       </c>
@@ -1537,11 +1542,14 @@
         <v>10000</v>
       </c>
       <c r="K8">
-        <f>3.3*B8/(B8+10000)</f>
+        <f t="shared" si="0"/>
         <v>1.65</v>
       </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>30</v>
       </c>
@@ -1549,11 +1557,11 @@
         <v>8000</v>
       </c>
       <c r="K9">
-        <f>3.3*B9/(B9+10000)</f>
+        <f t="shared" si="0"/>
         <v>1.4666666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>40</v>
       </c>
@@ -1561,11 +1569,11 @@
         <v>5500</v>
       </c>
       <c r="K10">
-        <f>3.3*B10/(B10+10000)</f>
+        <f t="shared" si="0"/>
         <v>1.1709677419354838</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>50</v>
       </c>
@@ -1573,11 +1581,11 @@
         <v>4000</v>
       </c>
       <c r="K11">
-        <f>3.3*B11/(B11+10000)</f>
+        <f t="shared" si="0"/>
         <v>0.94285714285714284</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>60</v>
       </c>
@@ -1585,11 +1593,11 @@
         <v>2700</v>
       </c>
       <c r="K12">
-        <f>3.3*B12/(B12+10000)</f>
+        <f t="shared" si="0"/>
         <v>0.7015748031496063</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>70</v>
       </c>
@@ -1597,11 +1605,11 @@
         <v>2000</v>
       </c>
       <c r="K13">
-        <f>3.3*B13/(B13+10000)</f>
+        <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>80</v>
       </c>
@@ -1609,11 +1617,11 @@
         <v>1500</v>
       </c>
       <c r="K14">
-        <f>3.3*B14/(B14+10000)</f>
+        <f t="shared" si="0"/>
         <v>0.43043478260869567</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>90</v>
       </c>
@@ -1621,11 +1629,11 @@
         <v>1000</v>
       </c>
       <c r="K15">
-        <f>3.3*B15/(B15+10000)</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>100</v>
       </c>
@@ -1633,7 +1641,7 @@
         <v>800</v>
       </c>
       <c r="K16">
-        <f>3.3*B16/(B16+10000)</f>
+        <f t="shared" si="0"/>
         <v>0.24444444444444444</v>
       </c>
     </row>
@@ -1645,7 +1653,7 @@
         <v>470</v>
       </c>
       <c r="K17">
-        <f>3.3*B17/(B17+10000)</f>
+        <f t="shared" si="0"/>
         <v>0.1481375358166189</v>
       </c>
     </row>

--- a/ThermisterTTC103.xlsx
+++ b/ThermisterTTC103.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\school\College\Sem 5\Embedded\Lab\MS2\milestone-2-front-row-squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9419F4F0-3F71-48E2-A9E6-5966951DFAD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23137862-BACC-432C-A738-114D5E5E4FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{3B8B9557-4AC8-4DDE-8A78-C31AB3DB3422}"/>
   </bookViews>
@@ -549,7 +549,465 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28782020997375324"/>
+                  <c:y val="6.5536599591717705E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3.09375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.18135593220339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1709677419354838</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7015748031496063</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43043478260869567</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1481375358166189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-18EB-4F2F-9D33-E6530B8B3DFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="735149656"/>
+        <c:axId val="735146048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="735149656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="735146048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="735146048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="735149656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1105,6 +1563,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1138,6 +2112,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>415246</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>126715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>492302</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>108735</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48FC5B5B-7EDC-466F-A77B-3F5EB2273B61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1445,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41279EC-6228-4CFC-A1CF-733EA1FFCBC1}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1482,7 +2492,7 @@
         <v>80000</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K2:K17" si="0">3.3*B3/(B3+10000)</f>
+        <f t="shared" ref="K3:K17" si="0">3.3*B3/(B3+10000)</f>
         <v>2.9333333333333331</v>
       </c>
     </row>
